--- a/simplex.xlsx
+++ b/simplex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19245" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19245" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>X1</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>pivote</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -608,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -784,14 +787,14 @@
         <v>0</v>
       </c>
       <c r="L4" t="e">
-        <f t="shared" ref="L4:L7" ca="1" si="0">C4/N4</f>
+        <f t="shared" ref="L4:L6" ca="1" si="0">C4/N4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M4" t="s">
         <v>21</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N7" ca="1" si="1">INDIRECT(M4&amp;CELL("fila",C4))</f>
+        <f t="shared" ref="N4:N6" ca="1" si="1">INDIRECT(M4&amp;CELL("fila",C4))</f>
         <v>0</v>
       </c>
       <c r="O4">
@@ -1000,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1093,20 +1096,58 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <f ca="1">Hoja2!C3*(-Hoja2!N3)</f>
-        <v>-48</v>
-      </c>
-      <c r="L3" t="e">
+        <f ca="1">(C$6*-Hoja2!$N3)+Hoja2!C3</f>
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <f ca="1">(D$6*-Hoja2!$N3)+Hoja2!D3</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f ca="1">(E$6*-Hoja2!$N3)+Hoja2!E3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f ca="1">(F$6*-Hoja2!$N3)+Hoja2!F3</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f ca="1">(G$6*-Hoja2!$N3)+Hoja2!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f ca="1">(H$6*-Hoja2!$N3)+Hoja2!H3</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f ca="1">(I$6*-Hoja2!$N3)+Hoja2!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f ca="1">(J$6*-Hoja2!$N3)+Hoja2!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f ca="1">(K$6*-Hoja2!$N3)+Hoja2!K3</f>
+        <v>-0.5</v>
+      </c>
+      <c r="L3">
         <f ca="1">C3/N3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N3" t="e">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
         <f ca="1">INDIRECT(M3&amp;CELL("fila",C3))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P3" t="e">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <f ca="1">INDIRECT(M3&amp;O3)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1117,19 +1158,58 @@
         <v>16</v>
       </c>
       <c r="C4">
+        <f ca="1">(C$6*-Hoja2!$N4)+Hoja2!C4</f>
         <v>20</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" ref="L4:L7" ca="1" si="0">C4/N4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N4" t="e">
+      <c r="D4">
+        <f ca="1">(D$6*-Hoja2!$N4)+Hoja2!D4</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f ca="1">(E$6*-Hoja2!$N4)+Hoja2!E4</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f ca="1">(F$6*-Hoja2!$N4)+Hoja2!F4</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f ca="1">(G$6*-Hoja2!$N4)+Hoja2!G4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f ca="1">(H$6*-Hoja2!$N4)+Hoja2!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f ca="1">(I$6*-Hoja2!$N4)+Hoja2!I4</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f ca="1">(J$6*-Hoja2!$N4)+Hoja2!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f ca="1">(K$6*-Hoja2!$N4)+Hoja2!K4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L6" ca="1" si="0">C4/N4</f>
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
         <f t="shared" ref="N4:N6" ca="1" si="1">INDIRECT(M4&amp;CELL("fila",C4))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P4" t="e">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
         <f t="shared" ref="P4:P6" ca="1" si="2">INDIRECT(M4&amp;O4)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1140,19 +1220,58 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="L5" t="e">
+        <f ca="1">(C$6*-Hoja2!$N5)+Hoja2!C5</f>
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <f ca="1">(D$6*-Hoja2!$N5)+Hoja2!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f ca="1">(E$6*-Hoja2!$N5)+Hoja2!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f ca="1">(F$6*-Hoja2!$N5)+Hoja2!F5</f>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f ca="1">(G$6*-Hoja2!$N5)+Hoja2!G5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f ca="1">(H$6*-Hoja2!$N5)+Hoja2!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f ca="1">(I$6*-Hoja2!$N5)+Hoja2!I5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f ca="1">(J$6*-Hoja2!$N5)+Hoja2!J5</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f ca="1">(K$6*-Hoja2!$N5)+Hoja2!K5</f>
+        <v>-0.5</v>
+      </c>
+      <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N5" t="e">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P5" t="e">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1202,15 +1321,21 @@
       </c>
       <c r="L6" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
         <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P6" t="e">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1222,6 +1347,38 @@
         <f ca="1">(C3*$A$3)+(C4*$A$4)+(C5*$A$5)+(C6*$A$6)</f>
         <v>80000</v>
       </c>
+      <c r="D7">
+        <f t="shared" ref="D7:K7" ca="1" si="3">(D3*$A$3)+(D4*$A$4)+(D5*$A$5)+(D6*$A$6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="3"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
@@ -1229,36 +1386,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <f>D1-D7</f>
+        <f ca="1">D1-D7</f>
         <v>20000</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:K8" si="3">E1-E7</f>
+        <f t="shared" ref="E8:K8" ca="1" si="4">E1-E7</f>
         <v>20000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>20000</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>20000</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-5000</v>
       </c>
     </row>
   </sheetData>
